--- a/cancerBio/uploads/info2.xlsx
+++ b/cancerBio/uploads/info2.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\cancer3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andregeraldes/Documents/Mestrado/Bio/AASB/Trabalho/AASB-1516/cancerBio/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="4635" tabRatio="107"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Livro1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="101716" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5280" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="185">
   <si>
     <t>Case ID</t>
   </si>
@@ -244,6 +242,9 @@
     <t>TCGA-A2-A04P-01</t>
   </si>
   <si>
+    <t>MUT: R88Q;AMP;</t>
+  </si>
+  <si>
     <t>MUT: G108Vfs*15</t>
   </si>
   <si>
@@ -301,6 +302,9 @@
     <t>TCGA-BH-A18K-01</t>
   </si>
   <si>
+    <t>MUT: D569dup</t>
+  </si>
+  <si>
     <t>MUT: Q126*</t>
   </si>
   <si>
@@ -481,6 +485,9 @@
     <t>TCGA-B6-A0RE-01</t>
   </si>
   <si>
+    <t>MUT: E542K</t>
+  </si>
+  <si>
     <t>MUT: S303Afs*42</t>
   </si>
   <si>
@@ -544,6 +551,12 @@
     <t>TCGA-A8-A08R-01</t>
   </si>
   <si>
+    <t>MUT: F614I</t>
+  </si>
+  <si>
+    <t>MUT: S2337F</t>
+  </si>
+  <si>
     <t>TCGA-AN-A04D-01</t>
   </si>
   <si>
@@ -559,199 +572,13 @@
     <t>MUT: E171D,E171Lfs*2</t>
   </si>
   <si>
-    <t>TCGA-AN-A0FJ-01</t>
-  </si>
-  <si>
-    <t>MUT: V157Afs*24</t>
-  </si>
-  <si>
-    <t>TCGA-AN-A0FL-01</t>
-  </si>
-  <si>
-    <t>MUT: X225_splice</t>
-  </si>
-  <si>
-    <t>TCGA-AN-A0FX-01</t>
-  </si>
-  <si>
-    <t>TCGA-AN-A0XU-01</t>
-  </si>
-  <si>
-    <t>MUT: C275Lfs*67</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A0TS-01</t>
-  </si>
-  <si>
-    <t>MUT: E198*</t>
-  </si>
-  <si>
-    <t>MUT: V516L</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A0U1-01</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A0U4-01</t>
-  </si>
-  <si>
-    <t>MUT: H193Y</t>
-  </si>
-  <si>
-    <t>MUT: F11L</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A1AH-01</t>
-  </si>
-  <si>
-    <t>MUT: G108Ffs*40</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A1AI-01</t>
-  </si>
-  <si>
-    <t>MUT: F270I</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A1AJ-01</t>
-  </si>
-  <si>
-    <t>MUT: R273H</t>
-  </si>
-  <si>
-    <t>MUT: S10R</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A1AQ-01</t>
-  </si>
-  <si>
-    <t>MUT: R342Efs*3</t>
-  </si>
-  <si>
-    <t>MUT: S215*</t>
-  </si>
-  <si>
-    <t>TCGA-AR-A1AY-01</t>
-  </si>
-  <si>
-    <t>MUT: V122Dfs*26</t>
-  </si>
-  <si>
-    <t>TCGA-BH-A0AV-01</t>
-  </si>
-  <si>
-    <t>MUT: R248Q</t>
-  </si>
-  <si>
-    <t>TCGA-BH-A0BG-01</t>
-  </si>
-  <si>
-    <t>MUT: L201Ffs*8</t>
-  </si>
-  <si>
-    <t>TCGA-BH-A0BL-01</t>
-  </si>
-  <si>
-    <t>MUT: P151H</t>
-  </si>
-  <si>
-    <t>TCGA-BH-A0BW-01</t>
-  </si>
-  <si>
-    <t>MUT: G3106D</t>
-  </si>
-  <si>
-    <t>MUT: A74Efs*4</t>
-  </si>
-  <si>
-    <t>MUT: E907del</t>
-  </si>
-  <si>
-    <t>TCGA-BH-A0DL-01</t>
-  </si>
-  <si>
-    <t>MUT: E286A</t>
-  </si>
-  <si>
-    <t>TCGA-BH-A0WA-01</t>
-  </si>
-  <si>
-    <t>MUT: S241C</t>
-  </si>
-  <si>
-    <t>TCGA-C8-A12K-01</t>
-  </si>
-  <si>
-    <t>MUT: G912Efs*177</t>
-  </si>
-  <si>
-    <t>TCGA-C8-A12V-01</t>
-  </si>
-  <si>
-    <t>TCGA-C8-A131-01</t>
-  </si>
-  <si>
-    <t>MUT: N211Tfs*32</t>
-  </si>
-  <si>
-    <t>TCGA-C8-A134-01</t>
-  </si>
-  <si>
-    <t>TCGA-D8-A147-01</t>
-  </si>
-  <si>
-    <t>MUT: C176F</t>
-  </si>
-  <si>
-    <t>TCGA-E2-A14N-01</t>
-  </si>
-  <si>
-    <t>TCGA-E2-A14R-01</t>
-  </si>
-  <si>
-    <t>TCGA-E2-A14X-01</t>
-  </si>
-  <si>
-    <t>TCGA-E2-A14Y-01</t>
-  </si>
-  <si>
-    <t>MUT: Q136E</t>
-  </si>
-  <si>
-    <t>TCGA-E2-A150-01</t>
-  </si>
-  <si>
-    <t>MUT: C176*</t>
-  </si>
-  <si>
-    <t>TCGA-E2-A158-01</t>
-  </si>
-  <si>
-    <t>MUT: E542K</t>
-  </si>
-  <si>
-    <t>MUT: F614I</t>
-  </si>
-  <si>
-    <t>MUT: H1047R;AMP;</t>
-  </si>
-  <si>
-    <t>MUT: H1047R,R108H</t>
-  </si>
-  <si>
-    <t>MUT: H1047R</t>
-  </si>
-  <si>
-    <t>MUT: S2337F</t>
-  </si>
-  <si>
-    <t>MUT: D569dup</t>
-  </si>
-  <si>
-    <t>MUT: G12V</t>
-  </si>
-  <si>
-    <t>MUT: R88Q;AMP;</t>
+    <t>HYPER;</t>
+  </si>
+  <si>
+    <t>HYPO;</t>
+  </si>
+  <si>
+    <t>HYPER;AMP;UP;</t>
   </si>
 </sst>
 </file>
@@ -760,9 +587,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -797,15 +626,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1055,96 +881,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1" cy="1"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst/>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="74998"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
-      <a:lstStyle/>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1156,79 +893,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN80"/>
+  <dimension ref="A1:BN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="119" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" customWidth="1"/>
-    <col min="23" max="23" width="23" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" customWidth="1"/>
-    <col min="25" max="25" width="18.140625" customWidth="1"/>
-    <col min="26" max="26" width="19" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" customWidth="1"/>
-    <col min="28" max="28" width="17.7109375" customWidth="1"/>
-    <col min="29" max="29" width="21.85546875" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" customWidth="1"/>
-    <col min="31" max="31" width="19.85546875" customWidth="1"/>
-    <col min="32" max="32" width="20.28515625" customWidth="1"/>
-    <col min="33" max="33" width="17" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="19.42578125" customWidth="1"/>
-    <col min="37" max="37" width="18.140625" customWidth="1"/>
-    <col min="38" max="38" width="18.42578125" customWidth="1"/>
-    <col min="39" max="39" width="17" customWidth="1"/>
-    <col min="40" max="40" width="16" customWidth="1"/>
-    <col min="41" max="41" width="18.7109375" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" customWidth="1"/>
-    <col min="43" max="43" width="19.28515625" customWidth="1"/>
-    <col min="44" max="44" width="20.140625" customWidth="1"/>
-    <col min="45" max="45" width="19.28515625" customWidth="1"/>
-    <col min="46" max="46" width="16.140625" customWidth="1"/>
-    <col min="47" max="47" width="17.85546875" customWidth="1"/>
-    <col min="48" max="48" width="16.7109375" customWidth="1"/>
-    <col min="49" max="49" width="17" customWidth="1"/>
-    <col min="50" max="50" width="17.7109375" customWidth="1"/>
-    <col min="51" max="51" width="18.7109375" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" customWidth="1"/>
-    <col min="53" max="53" width="17.28515625" customWidth="1"/>
-    <col min="54" max="54" width="19.28515625" customWidth="1"/>
-    <col min="55" max="55" width="18" customWidth="1"/>
-    <col min="56" max="56" width="17.140625" customWidth="1"/>
-    <col min="57" max="57" width="16.7109375" customWidth="1"/>
-    <col min="58" max="58" width="16.140625" customWidth="1"/>
-    <col min="59" max="59" width="17.28515625" customWidth="1"/>
-    <col min="60" max="60" width="19.42578125" customWidth="1"/>
-    <col min="61" max="61" width="16.85546875" customWidth="1"/>
-    <col min="62" max="62" width="19" customWidth="1"/>
-    <col min="63" max="63" width="17.7109375" customWidth="1"/>
-    <col min="64" max="64" width="16.140625" customWidth="1"/>
-    <col min="65" max="65" width="19.85546875" customWidth="1"/>
-    <col min="66" max="66" width="16.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1638,10 +1309,10 @@
         <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -1689,7 +1360,7 @@
         <v>69</v>
       </c>
       <c r="T3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s">
         <v>67</v>
@@ -1722,7 +1393,7 @@
         <v>67</v>
       </c>
       <c r="AE3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s">
         <v>67</v>
@@ -1832,7 +1503,7 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -1841,7 +1512,7 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
         <v>70</v>
@@ -1904,13 +1575,13 @@
         <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s">
         <v>67</v>
       </c>
       <c r="AA4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s">
         <v>67</v>
@@ -1928,7 +1599,7 @@
         <v>67</v>
       </c>
       <c r="AG4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s">
         <v>67</v>
@@ -1943,7 +1614,7 @@
         <v>67</v>
       </c>
       <c r="AL4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM4" t="s">
         <v>67</v>
@@ -1967,7 +1638,7 @@
         <v>67</v>
       </c>
       <c r="AT4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AU4" t="s">
         <v>67</v>
@@ -2032,7 +1703,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -2041,7 +1712,7 @@
         <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
@@ -2232,7 +1903,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -2432,7 +2103,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -2441,7 +2112,7 @@
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>67</v>
@@ -2632,7 +2303,7 @@
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -2641,7 +2312,7 @@
         <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>67</v>
@@ -2832,7 +2503,7 @@
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -2841,7 +2512,7 @@
         <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
         <v>67</v>
@@ -2931,7 +2602,7 @@
         <v>67</v>
       </c>
       <c r="AH9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s">
         <v>67</v>
@@ -2967,7 +2638,7 @@
         <v>67</v>
       </c>
       <c r="AT9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU9" t="s">
         <v>67</v>
@@ -2985,10 +2656,10 @@
         <v>67</v>
       </c>
       <c r="AZ9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BA9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BB9" t="s">
         <v>67</v>
@@ -3032,7 +2703,7 @@
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -3041,7 +2712,7 @@
         <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>67</v>
@@ -3062,7 +2733,7 @@
         <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
         <v>67</v>
@@ -3110,7 +2781,7 @@
         <v>67</v>
       </c>
       <c r="AA10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB10" t="s">
         <v>67</v>
@@ -3128,7 +2799,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH10" t="s">
         <v>67</v>
@@ -3232,10 +2903,10 @@
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
         <v>67</v>
@@ -3256,7 +2927,7 @@
         <v>67</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
         <v>67</v>
@@ -3301,7 +2972,7 @@
         <v>67</v>
       </c>
       <c r="X11" t="s">
-        <v>239</v>
+        <v>92</v>
       </c>
       <c r="Y11" t="s">
         <v>67</v>
@@ -3355,7 +3026,7 @@
         <v>67</v>
       </c>
       <c r="AP11" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="AQ11" t="s">
         <v>67</v>
@@ -3364,7 +3035,7 @@
         <v>67</v>
       </c>
       <c r="AS11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AT11" t="s">
         <v>67</v>
@@ -3403,7 +3074,7 @@
         <v>67</v>
       </c>
       <c r="BF11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BG11" t="s">
         <v>67</v>
@@ -3432,7 +3103,7 @@
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -3441,7 +3112,7 @@
         <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
         <v>67</v>
@@ -3632,7 +3303,7 @@
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -3641,7 +3312,7 @@
         <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
         <v>67</v>
@@ -3832,7 +3503,7 @@
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -3841,7 +3512,7 @@
         <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
@@ -4032,7 +3703,7 @@
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -4041,7 +3712,7 @@
         <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
@@ -4232,7 +3903,7 @@
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -4241,7 +3912,7 @@
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
         <v>67</v>
@@ -4432,7 +4103,7 @@
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -4441,7 +4112,7 @@
         <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>67</v>
@@ -4480,7 +4151,7 @@
         <v>67</v>
       </c>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R17" t="s">
         <v>67</v>
@@ -4492,7 +4163,7 @@
         <v>67</v>
       </c>
       <c r="U17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s">
         <v>67</v>
@@ -4510,7 +4181,7 @@
         <v>67</v>
       </c>
       <c r="AA17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB17" t="s">
         <v>67</v>
@@ -4531,7 +4202,7 @@
         <v>67</v>
       </c>
       <c r="AH17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s">
         <v>67</v>
@@ -4632,7 +4303,7 @@
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -4641,7 +4312,7 @@
         <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
@@ -4794,7 +4465,7 @@
         <v>67</v>
       </c>
       <c r="BC18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BD18" t="s">
         <v>67</v>
@@ -4832,7 +4503,7 @@
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -4841,7 +4512,7 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
@@ -4874,7 +4545,7 @@
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="P19" t="s">
         <v>67</v>
@@ -4934,7 +4605,7 @@
         <v>67</v>
       </c>
       <c r="AI19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="s">
         <v>67</v>
@@ -5032,7 +4703,7 @@
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -5041,7 +4712,7 @@
         <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
         <v>67</v>
@@ -5098,7 +4769,7 @@
         <v>67</v>
       </c>
       <c r="W20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="X20" t="s">
         <v>67</v>
@@ -5110,7 +4781,7 @@
         <v>67</v>
       </c>
       <c r="AA20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB20" t="s">
         <v>67</v>
@@ -5131,7 +4802,7 @@
         <v>67</v>
       </c>
       <c r="AH20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI20" t="s">
         <v>67</v>
@@ -5232,7 +4903,7 @@
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -5253,7 +4924,7 @@
         <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
         <v>67</v>
@@ -5262,7 +4933,7 @@
         <v>67</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L21" t="s">
         <v>67</v>
@@ -5391,7 +5062,7 @@
         <v>67</v>
       </c>
       <c r="BB21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BC21" t="s">
         <v>67</v>
@@ -5432,7 +5103,7 @@
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -5441,7 +5112,7 @@
         <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
@@ -5507,7 +5178,7 @@
         <v>67</v>
       </c>
       <c r="Z22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s">
         <v>67</v>
@@ -5531,7 +5202,7 @@
         <v>67</v>
       </c>
       <c r="AH22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI22" t="s">
         <v>67</v>
@@ -5621,7 +5292,7 @@
         <v>67</v>
       </c>
       <c r="BL22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM22" t="s">
         <v>67</v>
@@ -5632,7 +5303,7 @@
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -5641,7 +5312,7 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>67</v>
@@ -5832,7 +5503,7 @@
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -5841,7 +5512,7 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>67</v>
@@ -6032,7 +5703,7 @@
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -6041,7 +5712,7 @@
         <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
         <v>67</v>
@@ -6224,7 +5895,7 @@
         <v>67</v>
       </c>
       <c r="BM25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BN25" t="s">
         <v>67</v>
@@ -6232,7 +5903,7 @@
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B26" t="s">
         <v>67</v>
@@ -6241,7 +5912,7 @@
         <v>67</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>67</v>
@@ -6253,7 +5924,7 @@
         <v>67</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
         <v>67</v>
@@ -6268,7 +5939,7 @@
         <v>67</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N26" t="s">
         <v>67</v>
@@ -6298,10 +5969,10 @@
         <v>67</v>
       </c>
       <c r="W26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
         <v>67</v>
@@ -6322,7 +5993,7 @@
         <v>67</v>
       </c>
       <c r="AE26" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="AF26" t="s">
         <v>67</v>
@@ -6432,7 +6103,7 @@
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
@@ -6441,7 +6112,7 @@
         <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
         <v>67</v>
@@ -6603,7 +6274,7 @@
         <v>67</v>
       </c>
       <c r="BF27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BG27" t="s">
         <v>67</v>
@@ -6632,7 +6303,7 @@
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
@@ -6641,7 +6312,7 @@
         <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
         <v>67</v>
@@ -6686,7 +6357,7 @@
         <v>67</v>
       </c>
       <c r="S28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="T28" t="s">
         <v>69</v>
@@ -6832,7 +6503,7 @@
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -6841,7 +6512,7 @@
         <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E29" t="s">
         <v>67</v>
@@ -6859,7 +6530,7 @@
         <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="K29" t="s">
         <v>67</v>
@@ -7032,7 +6703,7 @@
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
@@ -7232,7 +6903,7 @@
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
@@ -7241,7 +6912,7 @@
         <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
         <v>67</v>
@@ -7283,7 +6954,7 @@
         <v>67</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="S31" t="s">
         <v>67</v>
@@ -7432,7 +7103,7 @@
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s">
         <v>67</v>
@@ -7621,7 +7292,7 @@
         <v>67</v>
       </c>
       <c r="BL32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM32" t="s">
         <v>67</v>
@@ -7632,7 +7303,7 @@
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
@@ -7641,7 +7312,7 @@
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
         <v>69</v>
@@ -7821,7 +7492,7 @@
         <v>67</v>
       </c>
       <c r="BL33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BM33" t="s">
         <v>67</v>
@@ -7832,7 +7503,7 @@
     </row>
     <row r="34" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
@@ -7841,7 +7512,7 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" t="s">
         <v>67</v>
@@ -8012,7 +7683,7 @@
         <v>67</v>
       </c>
       <c r="BI34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="BJ34" t="s">
         <v>67</v>
@@ -8032,7 +7703,7 @@
     </row>
     <row r="35" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
@@ -8041,7 +7712,7 @@
         <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
         <v>67</v>
@@ -8104,7 +7775,7 @@
         <v>67</v>
       </c>
       <c r="Y35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Z35" t="s">
         <v>67</v>
@@ -8185,7 +7856,7 @@
         <v>67</v>
       </c>
       <c r="AZ35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="BA35" t="s">
         <v>67</v>
@@ -8224,7 +7895,7 @@
         <v>67</v>
       </c>
       <c r="BM35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BN35" t="s">
         <v>67</v>
@@ -8232,7 +7903,7 @@
     </row>
     <row r="36" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
@@ -8241,7 +7912,7 @@
         <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E36" t="s">
         <v>67</v>
@@ -8310,7 +7981,7 @@
         <v>67</v>
       </c>
       <c r="AA36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s">
         <v>67</v>
@@ -8409,7 +8080,7 @@
         <v>67</v>
       </c>
       <c r="BH36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BI36" t="s">
         <v>67</v>
@@ -8432,7 +8103,7 @@
     </row>
     <row r="37" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
@@ -8441,7 +8112,7 @@
         <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E37" t="s">
         <v>67</v>
@@ -8450,7 +8121,7 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H37" t="s">
         <v>67</v>
@@ -8480,7 +8151,7 @@
         <v>67</v>
       </c>
       <c r="Q37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R37" t="s">
         <v>67</v>
@@ -8492,7 +8163,7 @@
         <v>67</v>
       </c>
       <c r="U37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V37" t="s">
         <v>67</v>
@@ -8632,7 +8303,7 @@
     </row>
     <row r="38" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -8674,7 +8345,7 @@
         <v>67</v>
       </c>
       <c r="O38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P38" t="s">
         <v>67</v>
@@ -8773,7 +8444,7 @@
         <v>67</v>
       </c>
       <c r="AV38" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="AW38" t="s">
         <v>67</v>
@@ -8821,7 +8492,7 @@
         <v>67</v>
       </c>
       <c r="BL38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM38" t="s">
         <v>67</v>
@@ -8832,16 +8503,16 @@
     </row>
     <row r="39" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
         <v>67</v>
@@ -8907,7 +8578,7 @@
         <v>67</v>
       </c>
       <c r="Z39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA39" t="s">
         <v>67</v>
@@ -8934,7 +8605,7 @@
         <v>67</v>
       </c>
       <c r="AI39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AJ39" t="s">
         <v>67</v>
@@ -8961,7 +8632,7 @@
         <v>67</v>
       </c>
       <c r="AR39" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="AS39" t="s">
         <v>67</v>
@@ -9032,7 +8703,7 @@
     </row>
     <row r="40" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
@@ -9232,7 +8903,7 @@
     </row>
     <row r="41" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B41" t="s">
         <v>67</v>
@@ -9241,7 +8912,7 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
         <v>70</v>
@@ -9286,7 +8957,7 @@
         <v>67</v>
       </c>
       <c r="S41" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="T41" t="s">
         <v>67</v>
@@ -9346,7 +9017,7 @@
         <v>67</v>
       </c>
       <c r="AM41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AN41" t="s">
         <v>67</v>
@@ -9406,7 +9077,7 @@
         <v>67</v>
       </c>
       <c r="BG41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BH41" t="s">
         <v>67</v>
@@ -9432,7 +9103,7 @@
     </row>
     <row r="42" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
@@ -9585,7 +9256,7 @@
         <v>67</v>
       </c>
       <c r="AZ42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BA42" t="s">
         <v>67</v>
@@ -9627,12 +9298,12 @@
         <v>67</v>
       </c>
       <c r="BN42" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
         <v>67</v>
@@ -9656,7 +9327,7 @@
         <v>67</v>
       </c>
       <c r="I43" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
         <v>67</v>
@@ -9785,7 +9456,7 @@
         <v>67</v>
       </c>
       <c r="AZ43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BA43" t="s">
         <v>67</v>
@@ -9832,7 +9503,7 @@
     </row>
     <row r="44" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
         <v>67</v>
@@ -9841,7 +9512,7 @@
         <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
         <v>67</v>
@@ -10032,7 +9703,7 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
         <v>67</v>
@@ -10041,7 +9712,7 @@
         <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E45" t="s">
         <v>67</v>
@@ -10074,7 +9745,7 @@
         <v>67</v>
       </c>
       <c r="O45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P45" t="s">
         <v>67</v>
@@ -10095,7 +9766,7 @@
         <v>67</v>
       </c>
       <c r="V45" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="W45" t="s">
         <v>67</v>
@@ -10137,7 +9808,7 @@
         <v>67</v>
       </c>
       <c r="AJ45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s">
         <v>67</v>
@@ -10158,7 +9829,7 @@
         <v>67</v>
       </c>
       <c r="AQ45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AR45" t="s">
         <v>67</v>
@@ -10227,12 +9898,12 @@
         <v>67</v>
       </c>
       <c r="BN45" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
@@ -10241,7 +9912,7 @@
         <v>67</v>
       </c>
       <c r="D46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E46" t="s">
         <v>67</v>
@@ -10432,7 +10103,7 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s">
         <v>67</v>
@@ -10632,16 +10303,16 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
         <v>70</v>
@@ -10677,7 +10348,7 @@
         <v>67</v>
       </c>
       <c r="P48" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="Q48" t="s">
         <v>67</v>
@@ -10821,7 +10492,7 @@
         <v>67</v>
       </c>
       <c r="BL48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM48" t="s">
         <v>67</v>
@@ -10832,7 +10503,7 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -10910,7 +10581,7 @@
         <v>67</v>
       </c>
       <c r="AA49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s">
         <v>67</v>
@@ -11032,7 +10703,7 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -11041,7 +10712,7 @@
         <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E50" t="s">
         <v>67</v>
@@ -11050,7 +10721,7 @@
         <v>67</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
         <v>67</v>
@@ -11203,7 +10874,7 @@
         <v>67</v>
       </c>
       <c r="BF50" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="BG50" t="s">
         <v>67</v>
@@ -11232,7 +10903,7 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
         <v>67</v>
@@ -11241,7 +10912,7 @@
         <v>67</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E51" t="s">
         <v>67</v>
@@ -11331,7 +11002,7 @@
         <v>67</v>
       </c>
       <c r="AH51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AI51" t="s">
         <v>67</v>
@@ -11427,5852 +11098,10 @@
         <v>67</v>
       </c>
       <c r="BN51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" t="s">
-        <v>178</v>
-      </c>
-      <c r="E52" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" t="s">
-        <v>69</v>
-      </c>
-      <c r="K52" t="s">
-        <v>67</v>
-      </c>
-      <c r="L52" t="s">
-        <v>67</v>
-      </c>
-      <c r="M52" t="s">
-        <v>70</v>
-      </c>
-      <c r="N52" t="s">
-        <v>67</v>
-      </c>
-      <c r="O52" t="s">
-        <v>67</v>
-      </c>
-      <c r="P52" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>67</v>
-      </c>
-      <c r="R52" t="s">
-        <v>69</v>
-      </c>
-      <c r="S52" t="s">
-        <v>67</v>
-      </c>
-      <c r="T52" t="s">
-        <v>67</v>
-      </c>
-      <c r="U52" t="s">
-        <v>67</v>
-      </c>
-      <c r="V52" t="s">
-        <v>67</v>
-      </c>
-      <c r="W52" t="s">
-        <v>67</v>
-      </c>
-      <c r="X52" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS52" t="s">
-        <v>69</v>
-      </c>
-      <c r="AT52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY52" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>179</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" t="s">
-        <v>180</v>
-      </c>
-      <c r="E53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J53" t="s">
-        <v>67</v>
-      </c>
-      <c r="K53" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53" t="s">
-        <v>67</v>
-      </c>
-      <c r="M53" t="s">
-        <v>67</v>
-      </c>
-      <c r="N53" t="s">
-        <v>67</v>
-      </c>
-      <c r="O53" t="s">
-        <v>67</v>
-      </c>
-      <c r="P53" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>67</v>
-      </c>
-      <c r="R53" t="s">
-        <v>67</v>
-      </c>
-      <c r="S53" t="s">
-        <v>67</v>
-      </c>
-      <c r="T53" t="s">
-        <v>73</v>
-      </c>
-      <c r="U53" t="s">
-        <v>67</v>
-      </c>
-      <c r="V53" t="s">
-        <v>67</v>
-      </c>
-      <c r="W53" t="s">
-        <v>67</v>
-      </c>
-      <c r="X53" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT53" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY53" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF53" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM53" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" t="s">
-        <v>163</v>
-      </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K54" t="s">
-        <v>67</v>
-      </c>
-      <c r="L54" t="s">
-        <v>67</v>
-      </c>
-      <c r="M54" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" t="s">
-        <v>67</v>
-      </c>
-      <c r="O54" t="s">
-        <v>67</v>
-      </c>
-      <c r="P54" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>67</v>
-      </c>
-      <c r="R54" t="s">
-        <v>67</v>
-      </c>
-      <c r="S54" t="s">
-        <v>67</v>
-      </c>
-      <c r="T54" t="s">
-        <v>69</v>
-      </c>
-      <c r="U54" t="s">
-        <v>67</v>
-      </c>
-      <c r="V54" t="s">
-        <v>67</v>
-      </c>
-      <c r="W54" t="s">
-        <v>67</v>
-      </c>
-      <c r="X54" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY54" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM54" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" t="s">
-        <v>183</v>
-      </c>
-      <c r="E55" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L55" t="s">
-        <v>67</v>
-      </c>
-      <c r="M55" t="s">
-        <v>67</v>
-      </c>
-      <c r="N55" t="s">
-        <v>67</v>
-      </c>
-      <c r="O55" t="s">
-        <v>70</v>
-      </c>
-      <c r="P55" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>67</v>
-      </c>
-      <c r="R55" t="s">
-        <v>67</v>
-      </c>
-      <c r="S55" t="s">
-        <v>67</v>
-      </c>
-      <c r="T55" t="s">
-        <v>69</v>
-      </c>
-      <c r="U55" t="s">
-        <v>67</v>
-      </c>
-      <c r="V55" t="s">
-        <v>67</v>
-      </c>
-      <c r="W55" t="s">
-        <v>67</v>
-      </c>
-      <c r="X55" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI55" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY55" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI55" t="s">
-        <v>69</v>
-      </c>
-      <c r="BJ55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H56" t="s">
-        <v>67</v>
-      </c>
-      <c r="I56" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" t="s">
-        <v>67</v>
-      </c>
-      <c r="K56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L56" t="s">
-        <v>67</v>
-      </c>
-      <c r="M56" t="s">
-        <v>67</v>
-      </c>
-      <c r="N56" t="s">
-        <v>67</v>
-      </c>
-      <c r="O56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P56" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>87</v>
-      </c>
-      <c r="R56" t="s">
-        <v>67</v>
-      </c>
-      <c r="S56" t="s">
-        <v>67</v>
-      </c>
-      <c r="T56" t="s">
-        <v>67</v>
-      </c>
-      <c r="U56" t="s">
-        <v>87</v>
-      </c>
-      <c r="V56" t="s">
-        <v>67</v>
-      </c>
-      <c r="W56" t="s">
-        <v>67</v>
-      </c>
-      <c r="X56" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN56" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY56" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM56" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>187</v>
-      </c>
-      <c r="B57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F57" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" t="s">
-        <v>67</v>
-      </c>
-      <c r="L57" t="s">
-        <v>67</v>
-      </c>
-      <c r="M57" t="s">
-        <v>67</v>
-      </c>
-      <c r="N57" t="s">
-        <v>67</v>
-      </c>
-      <c r="O57" t="s">
-        <v>67</v>
-      </c>
-      <c r="P57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>67</v>
-      </c>
-      <c r="R57" t="s">
-        <v>67</v>
-      </c>
-      <c r="S57" t="s">
-        <v>67</v>
-      </c>
-      <c r="T57" t="s">
-        <v>67</v>
-      </c>
-      <c r="U57" t="s">
-        <v>67</v>
-      </c>
-      <c r="V57" t="s">
-        <v>67</v>
-      </c>
-      <c r="W57" t="s">
-        <v>67</v>
-      </c>
-      <c r="X57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>188</v>
-      </c>
-      <c r="B58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" t="s">
-        <v>67</v>
-      </c>
-      <c r="K58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" t="s">
-        <v>67</v>
-      </c>
-      <c r="M58" t="s">
-        <v>67</v>
-      </c>
-      <c r="N58" t="s">
-        <v>67</v>
-      </c>
-      <c r="O58" t="s">
-        <v>67</v>
-      </c>
-      <c r="P58" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>67</v>
-      </c>
-      <c r="R58" t="s">
-        <v>67</v>
-      </c>
-      <c r="S58" t="s">
-        <v>67</v>
-      </c>
-      <c r="T58" t="s">
-        <v>67</v>
-      </c>
-      <c r="U58" t="s">
-        <v>67</v>
-      </c>
-      <c r="V58" t="s">
-        <v>67</v>
-      </c>
-      <c r="W58" t="s">
-        <v>67</v>
-      </c>
-      <c r="X58" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z58" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY58" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA58" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL58" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B59" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" t="s">
-        <v>67</v>
-      </c>
-      <c r="D59" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" t="s">
-        <v>67</v>
-      </c>
-      <c r="I59" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" t="s">
-        <v>67</v>
-      </c>
-      <c r="K59" t="s">
-        <v>67</v>
-      </c>
-      <c r="L59" t="s">
-        <v>67</v>
-      </c>
-      <c r="M59" t="s">
-        <v>67</v>
-      </c>
-      <c r="N59" t="s">
-        <v>67</v>
-      </c>
-      <c r="O59" t="s">
-        <v>67</v>
-      </c>
-      <c r="P59" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>67</v>
-      </c>
-      <c r="R59" t="s">
-        <v>67</v>
-      </c>
-      <c r="S59" t="s">
-        <v>67</v>
-      </c>
-      <c r="T59" t="s">
-        <v>69</v>
-      </c>
-      <c r="U59" t="s">
-        <v>67</v>
-      </c>
-      <c r="V59" t="s">
-        <v>67</v>
-      </c>
-      <c r="W59" t="s">
-        <v>67</v>
-      </c>
-      <c r="X59" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ59" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL59" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>193</v>
-      </c>
-      <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" t="s">
-        <v>67</v>
-      </c>
-      <c r="K60" t="s">
-        <v>67</v>
-      </c>
-      <c r="L60" t="s">
-        <v>67</v>
-      </c>
-      <c r="M60" t="s">
-        <v>67</v>
-      </c>
-      <c r="N60" t="s">
-        <v>67</v>
-      </c>
-      <c r="O60" t="s">
-        <v>67</v>
-      </c>
-      <c r="P60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>67</v>
-      </c>
-      <c r="R60" t="s">
-        <v>67</v>
-      </c>
-      <c r="S60" t="s">
-        <v>67</v>
-      </c>
-      <c r="T60" t="s">
-        <v>67</v>
-      </c>
-      <c r="U60" t="s">
-        <v>67</v>
-      </c>
-      <c r="V60" t="s">
-        <v>67</v>
-      </c>
-      <c r="W60" t="s">
-        <v>67</v>
-      </c>
-      <c r="X60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX60" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF60" t="s">
-        <v>73</v>
-      </c>
-      <c r="BG60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" t="s">
-        <v>196</v>
-      </c>
-      <c r="E61" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" t="s">
-        <v>197</v>
-      </c>
-      <c r="I61" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" t="s">
-        <v>67</v>
-      </c>
-      <c r="K61" t="s">
-        <v>67</v>
-      </c>
-      <c r="L61" t="s">
-        <v>67</v>
-      </c>
-      <c r="M61" t="s">
-        <v>67</v>
-      </c>
-      <c r="N61" t="s">
-        <v>67</v>
-      </c>
-      <c r="O61" t="s">
-        <v>67</v>
-      </c>
-      <c r="P61" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>67</v>
-      </c>
-      <c r="R61" t="s">
-        <v>67</v>
-      </c>
-      <c r="S61" t="s">
-        <v>67</v>
-      </c>
-      <c r="T61" t="s">
-        <v>67</v>
-      </c>
-      <c r="U61" t="s">
-        <v>67</v>
-      </c>
-      <c r="V61" t="s">
-        <v>67</v>
-      </c>
-      <c r="W61" t="s">
-        <v>67</v>
-      </c>
-      <c r="X61" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY61" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" t="s">
-        <v>199</v>
-      </c>
-      <c r="E62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" t="s">
-        <v>67</v>
-      </c>
-      <c r="I62" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" t="s">
-        <v>67</v>
-      </c>
-      <c r="K62" t="s">
-        <v>67</v>
-      </c>
-      <c r="L62" t="s">
-        <v>67</v>
-      </c>
-      <c r="M62" t="s">
-        <v>67</v>
-      </c>
-      <c r="N62" t="s">
-        <v>67</v>
-      </c>
-      <c r="O62" t="s">
-        <v>67</v>
-      </c>
-      <c r="P62" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>67</v>
-      </c>
-      <c r="R62" t="s">
-        <v>67</v>
-      </c>
-      <c r="S62" t="s">
-        <v>67</v>
-      </c>
-      <c r="T62" t="s">
-        <v>67</v>
-      </c>
-      <c r="U62" t="s">
-        <v>67</v>
-      </c>
-      <c r="V62" t="s">
-        <v>67</v>
-      </c>
-      <c r="W62" t="s">
-        <v>67</v>
-      </c>
-      <c r="X62" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" t="s">
-        <v>202</v>
-      </c>
-      <c r="E63" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" t="s">
-        <v>67</v>
-      </c>
-      <c r="H63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" t="s">
-        <v>67</v>
-      </c>
-      <c r="K63" t="s">
-        <v>67</v>
-      </c>
-      <c r="L63" t="s">
-        <v>67</v>
-      </c>
-      <c r="M63" t="s">
-        <v>67</v>
-      </c>
-      <c r="N63" t="s">
-        <v>67</v>
-      </c>
-      <c r="O63" t="s">
-        <v>67</v>
-      </c>
-      <c r="P63" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>67</v>
-      </c>
-      <c r="R63" t="s">
-        <v>67</v>
-      </c>
-      <c r="S63" t="s">
-        <v>67</v>
-      </c>
-      <c r="T63" t="s">
-        <v>67</v>
-      </c>
-      <c r="U63" t="s">
-        <v>67</v>
-      </c>
-      <c r="V63" t="s">
-        <v>67</v>
-      </c>
-      <c r="W63" t="s">
-        <v>67</v>
-      </c>
-      <c r="X63" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>203</v>
-      </c>
-      <c r="B64" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" t="s">
-        <v>70</v>
-      </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" t="s">
-        <v>67</v>
-      </c>
-      <c r="K64" t="s">
-        <v>67</v>
-      </c>
-      <c r="L64" t="s">
-        <v>67</v>
-      </c>
-      <c r="M64" t="s">
-        <v>67</v>
-      </c>
-      <c r="N64" t="s">
-        <v>67</v>
-      </c>
-      <c r="O64" t="s">
-        <v>70</v>
-      </c>
-      <c r="P64" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>67</v>
-      </c>
-      <c r="R64" t="s">
-        <v>67</v>
-      </c>
-      <c r="S64" t="s">
-        <v>67</v>
-      </c>
-      <c r="T64" t="s">
-        <v>69</v>
-      </c>
-      <c r="U64" t="s">
-        <v>67</v>
-      </c>
-      <c r="V64" t="s">
-        <v>67</v>
-      </c>
-      <c r="W64" t="s">
-        <v>67</v>
-      </c>
-      <c r="X64" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY64" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>205</v>
-      </c>
-      <c r="B65" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" t="s">
-        <v>206</v>
-      </c>
-      <c r="E65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F65" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H65" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K65" t="s">
-        <v>67</v>
-      </c>
-      <c r="L65" t="s">
-        <v>67</v>
-      </c>
-      <c r="M65" t="s">
-        <v>67</v>
-      </c>
-      <c r="N65" t="s">
-        <v>67</v>
-      </c>
-      <c r="O65" t="s">
-        <v>67</v>
-      </c>
-      <c r="P65" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>67</v>
-      </c>
-      <c r="R65" t="s">
-        <v>67</v>
-      </c>
-      <c r="S65" t="s">
-        <v>67</v>
-      </c>
-      <c r="T65" t="s">
-        <v>67</v>
-      </c>
-      <c r="U65" t="s">
-        <v>67</v>
-      </c>
-      <c r="V65" t="s">
-        <v>67</v>
-      </c>
-      <c r="W65" t="s">
-        <v>67</v>
-      </c>
-      <c r="X65" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY65" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL65" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM65" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>207</v>
-      </c>
-      <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D66" t="s">
-        <v>208</v>
-      </c>
-      <c r="E66" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J66" t="s">
-        <v>67</v>
-      </c>
-      <c r="K66" t="s">
-        <v>67</v>
-      </c>
-      <c r="L66" t="s">
-        <v>67</v>
-      </c>
-      <c r="M66" t="s">
-        <v>67</v>
-      </c>
-      <c r="N66" t="s">
-        <v>67</v>
-      </c>
-      <c r="O66" t="s">
-        <v>67</v>
-      </c>
-      <c r="P66" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>67</v>
-      </c>
-      <c r="R66" t="s">
-        <v>67</v>
-      </c>
-      <c r="S66" t="s">
-        <v>67</v>
-      </c>
-      <c r="T66" t="s">
-        <v>67</v>
-      </c>
-      <c r="U66" t="s">
-        <v>67</v>
-      </c>
-      <c r="V66" t="s">
-        <v>67</v>
-      </c>
-      <c r="W66" t="s">
-        <v>67</v>
-      </c>
-      <c r="X66" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY66" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM66" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" t="s">
-        <v>67</v>
-      </c>
-      <c r="G67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I67" t="s">
-        <v>67</v>
-      </c>
-      <c r="J67" t="s">
-        <v>67</v>
-      </c>
-      <c r="K67" t="s">
-        <v>67</v>
-      </c>
-      <c r="L67" t="s">
-        <v>67</v>
-      </c>
-      <c r="M67" t="s">
-        <v>67</v>
-      </c>
-      <c r="N67" t="s">
-        <v>67</v>
-      </c>
-      <c r="O67" t="s">
-        <v>210</v>
-      </c>
-      <c r="P67" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>67</v>
-      </c>
-      <c r="R67" t="s">
-        <v>67</v>
-      </c>
-      <c r="S67" t="s">
-        <v>67</v>
-      </c>
-      <c r="T67" t="s">
-        <v>67</v>
-      </c>
-      <c r="U67" t="s">
-        <v>67</v>
-      </c>
-      <c r="V67" t="s">
-        <v>67</v>
-      </c>
-      <c r="W67" t="s">
-        <v>67</v>
-      </c>
-      <c r="X67" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC67" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK67" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL67" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM67" t="s">
-        <v>212</v>
-      </c>
-      <c r="BN67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>213</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" t="s">
-        <v>67</v>
-      </c>
-      <c r="H68" t="s">
-        <v>67</v>
-      </c>
-      <c r="I68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J68" t="s">
-        <v>67</v>
-      </c>
-      <c r="K68" t="s">
-        <v>67</v>
-      </c>
-      <c r="L68" t="s">
-        <v>67</v>
-      </c>
-      <c r="M68" t="s">
-        <v>67</v>
-      </c>
-      <c r="N68" t="s">
-        <v>67</v>
-      </c>
-      <c r="O68" t="s">
-        <v>67</v>
-      </c>
-      <c r="P68" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>67</v>
-      </c>
-      <c r="R68" t="s">
-        <v>67</v>
-      </c>
-      <c r="S68" t="s">
-        <v>67</v>
-      </c>
-      <c r="T68" t="s">
-        <v>67</v>
-      </c>
-      <c r="U68" t="s">
-        <v>67</v>
-      </c>
-      <c r="V68" t="s">
-        <v>67</v>
-      </c>
-      <c r="W68" t="s">
-        <v>67</v>
-      </c>
-      <c r="X68" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ68" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY68" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA68" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH68" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM68" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>215</v>
-      </c>
-      <c r="B69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" t="s">
-        <v>216</v>
-      </c>
-      <c r="E69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F69" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" t="s">
-        <v>67</v>
-      </c>
-      <c r="H69" t="s">
-        <v>67</v>
-      </c>
-      <c r="I69" t="s">
-        <v>67</v>
-      </c>
-      <c r="J69" t="s">
-        <v>67</v>
-      </c>
-      <c r="K69" t="s">
-        <v>67</v>
-      </c>
-      <c r="L69" t="s">
-        <v>67</v>
-      </c>
-      <c r="M69" t="s">
-        <v>67</v>
-      </c>
-      <c r="N69" t="s">
-        <v>67</v>
-      </c>
-      <c r="O69" t="s">
-        <v>67</v>
-      </c>
-      <c r="P69" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>67</v>
-      </c>
-      <c r="R69" t="s">
-        <v>67</v>
-      </c>
-      <c r="S69" t="s">
-        <v>67</v>
-      </c>
-      <c r="T69" t="s">
-        <v>67</v>
-      </c>
-      <c r="U69" t="s">
-        <v>67</v>
-      </c>
-      <c r="V69" t="s">
-        <v>67</v>
-      </c>
-      <c r="W69" t="s">
-        <v>67</v>
-      </c>
-      <c r="X69" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM69" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR69" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY69" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM69" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B70" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" t="s">
-        <v>105</v>
-      </c>
-      <c r="E70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" t="s">
-        <v>67</v>
-      </c>
-      <c r="H70" t="s">
-        <v>67</v>
-      </c>
-      <c r="I70" t="s">
-        <v>67</v>
-      </c>
-      <c r="J70" t="s">
-        <v>67</v>
-      </c>
-      <c r="K70" t="s">
-        <v>67</v>
-      </c>
-      <c r="L70" t="s">
-        <v>67</v>
-      </c>
-      <c r="M70" t="s">
-        <v>67</v>
-      </c>
-      <c r="N70" t="s">
-        <v>67</v>
-      </c>
-      <c r="O70" t="s">
-        <v>67</v>
-      </c>
-      <c r="P70" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>67</v>
-      </c>
-      <c r="R70" t="s">
-        <v>67</v>
-      </c>
-      <c r="S70" t="s">
-        <v>67</v>
-      </c>
-      <c r="T70" t="s">
-        <v>67</v>
-      </c>
-      <c r="U70" t="s">
-        <v>67</v>
-      </c>
-      <c r="V70" t="s">
-        <v>67</v>
-      </c>
-      <c r="W70" t="s">
-        <v>67</v>
-      </c>
-      <c r="X70" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY70" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK70" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL70" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM70" t="s">
-        <v>218</v>
-      </c>
-      <c r="BN70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>219</v>
-      </c>
-      <c r="B71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" t="s">
-        <v>67</v>
-      </c>
-      <c r="G71" t="s">
-        <v>67</v>
-      </c>
-      <c r="H71" t="s">
-        <v>67</v>
-      </c>
-      <c r="I71" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" t="s">
-        <v>67</v>
-      </c>
-      <c r="K71" t="s">
-        <v>67</v>
-      </c>
-      <c r="L71" t="s">
-        <v>67</v>
-      </c>
-      <c r="M71" t="s">
-        <v>67</v>
-      </c>
-      <c r="N71" t="s">
-        <v>67</v>
-      </c>
-      <c r="O71" t="s">
-        <v>67</v>
-      </c>
-      <c r="P71" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>67</v>
-      </c>
-      <c r="R71" t="s">
-        <v>67</v>
-      </c>
-      <c r="S71" t="s">
-        <v>67</v>
-      </c>
-      <c r="T71" t="s">
-        <v>67</v>
-      </c>
-      <c r="U71" t="s">
-        <v>67</v>
-      </c>
-      <c r="V71" t="s">
-        <v>67</v>
-      </c>
-      <c r="W71" t="s">
-        <v>67</v>
-      </c>
-      <c r="X71" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ71" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY71" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE71" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM71" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" t="s">
-        <v>236</v>
-      </c>
-      <c r="D72" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" t="s">
-        <v>67</v>
-      </c>
-      <c r="I72" t="s">
-        <v>67</v>
-      </c>
-      <c r="J72" t="s">
-        <v>67</v>
-      </c>
-      <c r="K72" t="s">
-        <v>221</v>
-      </c>
-      <c r="L72" t="s">
-        <v>67</v>
-      </c>
-      <c r="M72" t="s">
-        <v>67</v>
-      </c>
-      <c r="N72" t="s">
-        <v>67</v>
-      </c>
-      <c r="O72" t="s">
-        <v>67</v>
-      </c>
-      <c r="P72" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>67</v>
-      </c>
-      <c r="R72" t="s">
-        <v>67</v>
-      </c>
-      <c r="S72" t="s">
-        <v>67</v>
-      </c>
-      <c r="T72" t="s">
-        <v>67</v>
-      </c>
-      <c r="U72" t="s">
-        <v>67</v>
-      </c>
-      <c r="V72" t="s">
-        <v>67</v>
-      </c>
-      <c r="W72" t="s">
-        <v>67</v>
-      </c>
-      <c r="X72" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>240</v>
-      </c>
-      <c r="AC72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY72" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM72" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" t="s">
-        <v>67</v>
-      </c>
-      <c r="C73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D73" t="s">
-        <v>196</v>
-      </c>
-      <c r="E73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" t="s">
-        <v>67</v>
-      </c>
-      <c r="H73" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" t="s">
-        <v>67</v>
-      </c>
-      <c r="J73" t="s">
-        <v>67</v>
-      </c>
-      <c r="K73" t="s">
-        <v>67</v>
-      </c>
-      <c r="L73" t="s">
-        <v>67</v>
-      </c>
-      <c r="M73" t="s">
-        <v>67</v>
-      </c>
-      <c r="N73" t="s">
-        <v>67</v>
-      </c>
-      <c r="O73" t="s">
-        <v>67</v>
-      </c>
-      <c r="P73" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>67</v>
-      </c>
-      <c r="R73" t="s">
-        <v>67</v>
-      </c>
-      <c r="S73" t="s">
-        <v>67</v>
-      </c>
-      <c r="T73" t="s">
-        <v>67</v>
-      </c>
-      <c r="U73" t="s">
-        <v>67</v>
-      </c>
-      <c r="V73" t="s">
-        <v>67</v>
-      </c>
-      <c r="W73" t="s">
-        <v>67</v>
-      </c>
-      <c r="X73" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY73" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC73" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM73" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>223</v>
-      </c>
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="s">
-        <v>67</v>
-      </c>
-      <c r="D74" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74" t="s">
-        <v>67</v>
-      </c>
-      <c r="I74" t="s">
-        <v>67</v>
-      </c>
-      <c r="J74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K74" t="s">
-        <v>67</v>
-      </c>
-      <c r="L74" t="s">
-        <v>67</v>
-      </c>
-      <c r="M74" t="s">
-        <v>76</v>
-      </c>
-      <c r="N74" t="s">
-        <v>67</v>
-      </c>
-      <c r="O74" t="s">
-        <v>67</v>
-      </c>
-      <c r="P74" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>67</v>
-      </c>
-      <c r="R74" t="s">
-        <v>67</v>
-      </c>
-      <c r="S74" t="s">
-        <v>67</v>
-      </c>
-      <c r="T74" t="s">
-        <v>67</v>
-      </c>
-      <c r="U74" t="s">
-        <v>67</v>
-      </c>
-      <c r="V74" t="s">
-        <v>67</v>
-      </c>
-      <c r="W74" t="s">
-        <v>67</v>
-      </c>
-      <c r="X74" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY74" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH74" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL74" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM74" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>225</v>
-      </c>
-      <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D75" t="s">
-        <v>115</v>
-      </c>
-      <c r="E75" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G75" t="s">
-        <v>67</v>
-      </c>
-      <c r="H75" t="s">
-        <v>70</v>
-      </c>
-      <c r="I75" t="s">
-        <v>67</v>
-      </c>
-      <c r="J75" t="s">
-        <v>67</v>
-      </c>
-      <c r="K75" t="s">
-        <v>67</v>
-      </c>
-      <c r="L75" t="s">
-        <v>67</v>
-      </c>
-      <c r="M75" t="s">
-        <v>67</v>
-      </c>
-      <c r="N75" t="s">
-        <v>67</v>
-      </c>
-      <c r="O75" t="s">
-        <v>67</v>
-      </c>
-      <c r="P75" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>87</v>
-      </c>
-      <c r="R75" t="s">
-        <v>67</v>
-      </c>
-      <c r="S75" t="s">
-        <v>67</v>
-      </c>
-      <c r="T75" t="s">
-        <v>67</v>
-      </c>
-      <c r="U75" t="s">
-        <v>87</v>
-      </c>
-      <c r="V75" t="s">
-        <v>67</v>
-      </c>
-      <c r="W75" t="s">
-        <v>67</v>
-      </c>
-      <c r="X75" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AV75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX75" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY75" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM75" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>226</v>
-      </c>
-      <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" t="s">
-        <v>67</v>
-      </c>
-      <c r="H76" t="s">
-        <v>67</v>
-      </c>
-      <c r="I76" t="s">
-        <v>67</v>
-      </c>
-      <c r="J76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K76" t="s">
-        <v>67</v>
-      </c>
-      <c r="L76" t="s">
-        <v>67</v>
-      </c>
-      <c r="M76" t="s">
-        <v>67</v>
-      </c>
-      <c r="N76" t="s">
-        <v>67</v>
-      </c>
-      <c r="O76" t="s">
-        <v>67</v>
-      </c>
-      <c r="P76" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>67</v>
-      </c>
-      <c r="R76" t="s">
-        <v>67</v>
-      </c>
-      <c r="S76" t="s">
-        <v>67</v>
-      </c>
-      <c r="T76" t="s">
-        <v>67</v>
-      </c>
-      <c r="U76" t="s">
-        <v>67</v>
-      </c>
-      <c r="V76" t="s">
-        <v>67</v>
-      </c>
-      <c r="W76" t="s">
-        <v>67</v>
-      </c>
-      <c r="X76" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI76" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW76" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY76" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI76" t="s">
-        <v>69</v>
-      </c>
-      <c r="BJ76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM76" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>227</v>
-      </c>
-      <c r="B77" t="s">
-        <v>67</v>
-      </c>
-      <c r="C77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D77" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F77" t="s">
-        <v>67</v>
-      </c>
-      <c r="G77" t="s">
-        <v>67</v>
-      </c>
-      <c r="H77" t="s">
-        <v>67</v>
-      </c>
-      <c r="I77" t="s">
-        <v>67</v>
-      </c>
-      <c r="J77" t="s">
-        <v>67</v>
-      </c>
-      <c r="K77" t="s">
-        <v>67</v>
-      </c>
-      <c r="L77" t="s">
-        <v>67</v>
-      </c>
-      <c r="M77" t="s">
-        <v>67</v>
-      </c>
-      <c r="N77" t="s">
-        <v>67</v>
-      </c>
-      <c r="O77" t="s">
-        <v>67</v>
-      </c>
-      <c r="P77" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>67</v>
-      </c>
-      <c r="R77" t="s">
-        <v>67</v>
-      </c>
-      <c r="S77" t="s">
-        <v>67</v>
-      </c>
-      <c r="T77" t="s">
-        <v>67</v>
-      </c>
-      <c r="U77" t="s">
-        <v>67</v>
-      </c>
-      <c r="V77" t="s">
-        <v>67</v>
-      </c>
-      <c r="W77" t="s">
-        <v>67</v>
-      </c>
-      <c r="X77" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX77" t="s">
-        <v>69</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM77" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" t="s">
-        <v>229</v>
-      </c>
-      <c r="E78" t="s">
-        <v>67</v>
-      </c>
-      <c r="F78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" t="s">
-        <v>67</v>
-      </c>
-      <c r="H78" t="s">
-        <v>67</v>
-      </c>
-      <c r="I78" t="s">
-        <v>67</v>
-      </c>
-      <c r="J78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K78" t="s">
-        <v>67</v>
-      </c>
-      <c r="L78" t="s">
-        <v>67</v>
-      </c>
-      <c r="M78" t="s">
-        <v>67</v>
-      </c>
-      <c r="N78" t="s">
-        <v>69</v>
-      </c>
-      <c r="O78" t="s">
-        <v>67</v>
-      </c>
-      <c r="P78" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>67</v>
-      </c>
-      <c r="R78" t="s">
-        <v>67</v>
-      </c>
-      <c r="S78" t="s">
-        <v>67</v>
-      </c>
-      <c r="T78" t="s">
-        <v>67</v>
-      </c>
-      <c r="U78" t="s">
-        <v>67</v>
-      </c>
-      <c r="V78" t="s">
-        <v>67</v>
-      </c>
-      <c r="W78" t="s">
-        <v>67</v>
-      </c>
-      <c r="X78" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM78" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>230</v>
-      </c>
-      <c r="B79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" t="s">
-        <v>231</v>
-      </c>
-      <c r="E79" t="s">
-        <v>67</v>
-      </c>
-      <c r="F79" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" t="s">
-        <v>67</v>
-      </c>
-      <c r="H79" t="s">
-        <v>67</v>
-      </c>
-      <c r="I79" t="s">
-        <v>67</v>
-      </c>
-      <c r="J79" t="s">
-        <v>67</v>
-      </c>
-      <c r="K79" t="s">
-        <v>67</v>
-      </c>
-      <c r="L79" t="s">
-        <v>67</v>
-      </c>
-      <c r="M79" t="s">
-        <v>67</v>
-      </c>
-      <c r="N79" t="s">
-        <v>67</v>
-      </c>
-      <c r="O79" t="s">
-        <v>67</v>
-      </c>
-      <c r="P79" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>67</v>
-      </c>
-      <c r="R79" t="s">
-        <v>67</v>
-      </c>
-      <c r="S79" t="s">
-        <v>67</v>
-      </c>
-      <c r="T79" t="s">
-        <v>67</v>
-      </c>
-      <c r="U79" t="s">
-        <v>67</v>
-      </c>
-      <c r="V79" t="s">
-        <v>67</v>
-      </c>
-      <c r="W79" t="s">
-        <v>67</v>
-      </c>
-      <c r="X79" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI79" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY79" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA79" t="s">
-        <v>73</v>
-      </c>
-      <c r="BB79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BI79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM79" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>232</v>
-      </c>
-      <c r="B80" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" t="s">
-        <v>67</v>
-      </c>
-      <c r="H80" t="s">
-        <v>67</v>
-      </c>
-      <c r="I80" t="s">
-        <v>67</v>
-      </c>
-      <c r="J80" t="s">
-        <v>67</v>
-      </c>
-      <c r="K80" t="s">
-        <v>67</v>
-      </c>
-      <c r="L80" t="s">
-        <v>67</v>
-      </c>
-      <c r="M80" t="s">
-        <v>70</v>
-      </c>
-      <c r="N80" t="s">
-        <v>67</v>
-      </c>
-      <c r="O80" t="s">
-        <v>67</v>
-      </c>
-      <c r="P80" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>67</v>
-      </c>
-      <c r="R80" t="s">
-        <v>67</v>
-      </c>
-      <c r="S80" t="s">
-        <v>67</v>
-      </c>
-      <c r="T80" t="s">
-        <v>67</v>
-      </c>
-      <c r="U80" t="s">
-        <v>67</v>
-      </c>
-      <c r="V80" t="s">
-        <v>70</v>
-      </c>
-      <c r="W80" t="s">
-        <v>67</v>
-      </c>
-      <c r="X80" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AQ80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AR80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AT80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV80" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY80" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BE80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BF80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BH80" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BJ80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM80" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN80" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Tinos,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Tinos,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Tinos,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Tinos,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Tinos,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Tinos,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>